--- a/sofaplayer/Bundesliga/1. FC Union Berlin_stats.xlsx
+++ b/sofaplayer/Bundesliga/1. FC Union Berlin_stats.xlsx
@@ -1035,16 +1035,16 @@
         <v>1462742</v>
       </c>
       <c r="E2" t="n">
-        <v>6.7285714285714</v>
+        <v>6.7272727272727</v>
       </c>
       <c r="F2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" t="n">
-        <v>1381</v>
+        <v>1442</v>
       </c>
       <c r="I2" t="n">
         <v>1</v>
@@ -1056,7 +1056,7 @@
         <v>2.7134</v>
       </c>
       <c r="L2" t="n">
-        <v>276.2</v>
+        <v>288.4</v>
       </c>
       <c r="M2" t="n">
         <v>24</v>
@@ -1101,10 +1101,10 @@
         <v>1</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.88818763</v>
+        <v>0.90830733</v>
       </c>
       <c r="AB2" t="n">
-        <v>557</v>
+        <v>577</v>
       </c>
       <c r="AC2" t="n">
         <v>1</v>
@@ -1113,22 +1113,22 @@
         <v>13</v>
       </c>
       <c r="AE2" t="n">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="AF2" t="n">
-        <v>77.725118483412</v>
+        <v>78.538812785388</v>
       </c>
       <c r="AG2" t="n">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="AH2" t="n">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="AI2" t="n">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="AJ2" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="AK2" t="n">
         <v>3</v>
@@ -1152,10 +1152,10 @@
         <v>9</v>
       </c>
       <c r="AR2" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AS2" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AT2" t="n">
         <v>13</v>
@@ -1176,34 +1176,34 @@
         <v>23</v>
       </c>
       <c r="AZ2" t="n">
-        <v>45.098039215686</v>
+        <v>44.230769230769</v>
       </c>
       <c r="BA2" t="n">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="BB2" t="n">
-        <v>34.48275862069</v>
+        <v>34.11214953271</v>
       </c>
       <c r="BC2" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="BD2" t="n">
-        <v>37.748344370861</v>
+        <v>37.5</v>
       </c>
       <c r="BE2" t="n">
         <v>13</v>
       </c>
       <c r="BF2" t="n">
-        <v>25</v>
+        <v>24.074074074074</v>
       </c>
       <c r="BG2" t="n">
-        <v>215</v>
+        <v>220</v>
       </c>
       <c r="BH2" t="n">
         <v>16</v>
       </c>
       <c r="BI2" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="BJ2" t="n">
         <v>7</v>
@@ -1221,16 +1221,16 @@
         <v>0</v>
       </c>
       <c r="BO2" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="BP2" t="n">
         <v>0</v>
       </c>
       <c r="BQ2" t="n">
-        <v>141.3</v>
+        <v>148</v>
       </c>
       <c r="BR2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS2" t="n">
         <v>6</v>
@@ -1260,7 +1260,7 @@
         <v>9</v>
       </c>
       <c r="CB2" t="n">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="CC2" t="n">
         <v>5</v>
@@ -1284,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="CJ2" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="CK2" t="n">
         <v>2</v>
@@ -1311,16 +1311,16 @@
         <v>13</v>
       </c>
       <c r="CS2" t="n">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="CT2" t="n">
         <v>13</v>
       </c>
       <c r="CU2" t="n">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="CV2" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="CW2" t="n">
         <v>0</v>
@@ -1350,16 +1350,16 @@
         <v>0</v>
       </c>
       <c r="DF2" t="n">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="DG2" t="n">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="DH2" t="n">
         <v>0</v>
       </c>
       <c r="DI2" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="DJ2" t="n">
         <v>2163233</v>
@@ -1391,40 +1391,40 @@
         <v>953767</v>
       </c>
       <c r="E3" t="n">
-        <v>6.47</v>
+        <v>6.5190476190476</v>
       </c>
       <c r="F3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G3" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" t="n">
-        <v>1318</v>
+        <v>1408</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K3" t="n">
-        <v>6.4856</v>
+        <v>7.5084</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1408</v>
       </c>
       <c r="M3" t="n">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="N3" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="O3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>2.2727272727273</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
@@ -1436,13 +1436,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W3" t="n">
         <v>0</v>
@@ -1457,10 +1457,10 @@
         <v>7</v>
       </c>
       <c r="AA3" t="n">
-        <v>1.36852262</v>
+        <v>1.39903572</v>
       </c>
       <c r="AB3" t="n">
-        <v>461</v>
+        <v>489</v>
       </c>
       <c r="AC3" t="n">
         <v>5</v>
@@ -1469,22 +1469,22 @@
         <v>22</v>
       </c>
       <c r="AE3" t="n">
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AF3" t="n">
-        <v>59.259259259259</v>
+        <v>59.055118110236</v>
       </c>
       <c r="AG3" t="n">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="AH3" t="n">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="AI3" t="n">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="AJ3" t="n">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="AK3" t="n">
         <v>2</v>
@@ -1496,7 +1496,7 @@
         <v>2</v>
       </c>
       <c r="AN3" t="n">
-        <v>20</v>
+        <v>18.181818181818</v>
       </c>
       <c r="AO3" t="n">
         <v>0</v>
@@ -1508,16 +1508,16 @@
         <v>6</v>
       </c>
       <c r="AR3" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AS3" t="n">
         <v>8</v>
       </c>
       <c r="AT3" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AU3" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AV3" t="n">
         <v>0</v>
@@ -1532,37 +1532,37 @@
         <v>3</v>
       </c>
       <c r="AZ3" t="n">
-        <v>30</v>
+        <v>27.272727272727</v>
       </c>
       <c r="BA3" t="n">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="BB3" t="n">
-        <v>36.054421768707</v>
+        <v>36.708860759494</v>
       </c>
       <c r="BC3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BD3" t="n">
-        <v>26.923076923077</v>
+        <v>27.710843373494</v>
       </c>
       <c r="BE3" t="n">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="BF3" t="n">
-        <v>39.351851851852</v>
+        <v>39.914163090129</v>
       </c>
       <c r="BG3" t="n">
-        <v>186</v>
+        <v>195</v>
       </c>
       <c r="BH3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="BI3" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BJ3" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BK3" t="n">
         <v>4</v>
@@ -1577,40 +1577,40 @@
         <v>1</v>
       </c>
       <c r="BO3" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="BP3" t="n">
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>129.4</v>
+        <v>136.9</v>
       </c>
       <c r="BR3" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS3" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BT3" t="n">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="BU3" t="n">
         <v>0</v>
       </c>
       <c r="BV3" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BW3" t="n">
         <v>1</v>
       </c>
       <c r="BX3" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BY3" t="n">
         <v>0</v>
       </c>
       <c r="BZ3" t="n">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="CA3" t="n">
         <v>2</v>
@@ -1640,7 +1640,7 @@
         <v>0</v>
       </c>
       <c r="CJ3" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="CK3" t="n">
         <v>2</v>
@@ -1667,16 +1667,16 @@
         <v>22</v>
       </c>
       <c r="CS3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CT3" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="CU3" t="n">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="CV3" t="n">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="CW3" t="n">
         <v>0</v>
@@ -1706,10 +1706,10 @@
         <v>0</v>
       </c>
       <c r="DF3" t="n">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="DG3" t="n">
-        <v>190</v>
+        <v>199</v>
       </c>
       <c r="DH3" t="n">
         <v>0</v>
@@ -1747,16 +1747,16 @@
         <v>608362</v>
       </c>
       <c r="E4" t="n">
-        <v>6.6722222222222</v>
+        <v>6.6736842105263</v>
       </c>
       <c r="F4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G4" t="n">
         <v>13</v>
       </c>
       <c r="H4" t="n">
-        <v>1001</v>
+        <v>1016</v>
       </c>
       <c r="I4" t="n">
         <v>1</v>
@@ -1768,7 +1768,7 @@
         <v>2.9266</v>
       </c>
       <c r="L4" t="n">
-        <v>250.25</v>
+        <v>254</v>
       </c>
       <c r="M4" t="n">
         <v>23</v>
@@ -1810,37 +1810,37 @@
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.95303144</v>
+        <v>1.30813944</v>
       </c>
       <c r="AB4" t="n">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="AC4" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AD4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AE4" t="n">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="AF4" t="n">
-        <v>74.15730337078701</v>
+        <v>73.07692307692299</v>
       </c>
       <c r="AG4" t="n">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="AH4" t="n">
         <v>35</v>
       </c>
       <c r="AI4" t="n">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="AJ4" t="n">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="AK4" t="n">
         <v>2</v>
@@ -1849,10 +1849,10 @@
         <v>100</v>
       </c>
       <c r="AM4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AN4" t="n">
-        <v>31.578947368421</v>
+        <v>35</v>
       </c>
       <c r="AO4" t="n">
         <v>4</v>
@@ -1909,7 +1909,7 @@
         <v>33.333333333333</v>
       </c>
       <c r="BG4" t="n">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="BH4" t="n">
         <v>7</v>
@@ -1939,16 +1939,16 @@
         <v>0</v>
       </c>
       <c r="BQ4" t="n">
-        <v>120.1</v>
+        <v>126.8</v>
       </c>
       <c r="BR4" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BT4" t="n">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="BU4" t="n">
         <v>0</v>
@@ -2020,13 +2020,13 @@
         <v>0</v>
       </c>
       <c r="CR4" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="CS4" t="n">
         <v>25</v>
       </c>
       <c r="CT4" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="CU4" t="n">
         <v>71</v>
@@ -2065,7 +2065,7 @@
         <v>43</v>
       </c>
       <c r="DG4" t="n">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2103,16 +2103,16 @@
         <v>1513469</v>
       </c>
       <c r="E5" t="n">
-        <v>6.55</v>
+        <v>6.5777777777778</v>
       </c>
       <c r="F5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
       </c>
       <c r="H5" t="n">
-        <v>256</v>
+        <v>285</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -2169,64 +2169,64 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.19567356</v>
+        <v>0.36990156</v>
       </c>
       <c r="AB5" t="n">
-        <v>160</v>
+        <v>177</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
       </c>
       <c r="AD5" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AE5" t="n">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AF5" t="n">
-        <v>77.333333333333</v>
+        <v>75.308641975309</v>
       </c>
       <c r="AG5" t="n">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="AH5" t="n">
         <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="AJ5" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="AK5" t="n">
         <v>4</v>
       </c>
       <c r="AL5" t="n">
-        <v>66.666666666667</v>
+        <v>57.142857142857</v>
       </c>
       <c r="AM5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AN5" t="n">
-        <v>12.5</v>
+        <v>30</v>
       </c>
       <c r="AO5" t="n">
         <v>1</v>
       </c>
       <c r="AP5" t="n">
+        <v>5</v>
+      </c>
+      <c r="AQ5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR5" t="n">
+        <v>18</v>
+      </c>
+      <c r="AS5" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT5" t="n">
         <v>4</v>
-      </c>
-      <c r="AQ5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AR5" t="n">
-        <v>17</v>
-      </c>
-      <c r="AS5" t="n">
-        <v>1</v>
-      </c>
-      <c r="AT5" t="n">
-        <v>3</v>
       </c>
       <c r="AU5" t="n">
         <v>4</v>
@@ -2241,22 +2241,22 @@
         <v>0</v>
       </c>
       <c r="AY5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AZ5" t="n">
-        <v>44.444444444444</v>
+        <v>47.619047619048</v>
       </c>
       <c r="BA5" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BB5" t="n">
-        <v>40.425531914894</v>
+        <v>41.509433962264</v>
       </c>
       <c r="BC5" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="BD5" t="n">
-        <v>47.368421052632</v>
+        <v>47.727272727273</v>
       </c>
       <c r="BE5" t="n">
         <v>1</v>
@@ -2265,10 +2265,10 @@
         <v>11.111111111111</v>
       </c>
       <c r="BG5" t="n">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="BH5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BI5" t="n">
         <v>7</v>
@@ -2289,22 +2289,22 @@
         <v>0</v>
       </c>
       <c r="BO5" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BP5" t="n">
         <v>0</v>
       </c>
       <c r="BQ5" t="n">
-        <v>52.4</v>
+        <v>59.2</v>
       </c>
       <c r="BR5" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BS5" t="n">
         <v>0</v>
       </c>
       <c r="BT5" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BU5" t="n">
         <v>0</v>
@@ -2328,64 +2328,64 @@
         <v>4</v>
       </c>
       <c r="CB5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="CC5" t="n">
+        <v>7</v>
+      </c>
+      <c r="CD5" t="n">
+        <v>2</v>
+      </c>
+      <c r="CE5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CG5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CH5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ5" t="n">
+        <v>4</v>
+      </c>
+      <c r="CK5" t="n">
+        <v>1</v>
+      </c>
+      <c r="CL5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ5" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR5" t="n">
         <v>5</v>
       </c>
-      <c r="CD5" t="n">
-        <v>2</v>
-      </c>
-      <c r="CE5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CF5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CG5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CH5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CI5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CJ5" t="n">
-        <v>3</v>
-      </c>
-      <c r="CK5" t="n">
-        <v>1</v>
-      </c>
-      <c r="CL5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ5" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR5" t="n">
-        <v>3</v>
-      </c>
       <c r="CS5" t="n">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="CT5" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="CU5" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="CV5" t="n">
         <v>8</v>
@@ -2400,13 +2400,13 @@
         <v>0</v>
       </c>
       <c r="CZ5" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="DA5" t="n">
         <v>2</v>
       </c>
       <c r="DB5" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="DC5" t="n">
         <v>0</v>
@@ -2421,7 +2421,7 @@
         <v>23</v>
       </c>
       <c r="DG5" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="DH5" t="n">
         <v>0</v>
@@ -2459,16 +2459,16 @@
         <v>877302</v>
       </c>
       <c r="E6" t="n">
-        <v>6.5882352941176</v>
+        <v>6.6055555555556</v>
       </c>
       <c r="F6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G6" t="n">
         <v>8</v>
       </c>
       <c r="H6" t="n">
-        <v>798</v>
+        <v>813</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -2480,7 +2480,7 @@
         <v>1.2637</v>
       </c>
       <c r="L6" t="n">
-        <v>798</v>
+        <v>813</v>
       </c>
       <c r="M6" t="n">
         <v>17</v>
@@ -2525,10 +2525,10 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.2405691</v>
+        <v>0.3903101</v>
       </c>
       <c r="AB6" t="n">
-        <v>427</v>
+        <v>441</v>
       </c>
       <c r="AC6" t="n">
         <v>0</v>
@@ -2537,22 +2537,22 @@
         <v>4</v>
       </c>
       <c r="AE6" t="n">
-        <v>177</v>
+        <v>186</v>
       </c>
       <c r="AF6" t="n">
-        <v>71.370967741935</v>
+        <v>72.093023255814</v>
       </c>
       <c r="AG6" t="n">
-        <v>248</v>
+        <v>258</v>
       </c>
       <c r="AH6" t="n">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="AI6" t="n">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="AJ6" t="n">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="AK6" t="n">
         <v>1</v>
@@ -2561,22 +2561,22 @@
         <v>9.090909090909101</v>
       </c>
       <c r="AM6" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AN6" t="n">
-        <v>18.181818181818</v>
+        <v>23.076923076923</v>
       </c>
       <c r="AO6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AP6" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ6" t="n">
         <v>2</v>
       </c>
       <c r="AR6" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AS6" t="n">
         <v>11</v>
@@ -2603,25 +2603,25 @@
         <v>16.666666666667</v>
       </c>
       <c r="BA6" t="n">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="BB6" t="n">
-        <v>47.107438016529</v>
+        <v>47.967479674797</v>
       </c>
       <c r="BC6" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="BD6" t="n">
-        <v>43.67816091954</v>
+        <v>44.318181818182</v>
       </c>
       <c r="BE6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BF6" t="n">
-        <v>55.882352941176</v>
+        <v>57.142857142857</v>
       </c>
       <c r="BG6" t="n">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="BH6" t="n">
         <v>21</v>
@@ -2651,16 +2651,16 @@
         <v>0</v>
       </c>
       <c r="BQ6" t="n">
-        <v>112</v>
+        <v>118.9</v>
       </c>
       <c r="BR6" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="BS6" t="n">
         <v>1</v>
       </c>
       <c r="BT6" t="n">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="BU6" t="n">
         <v>0</v>
@@ -2738,7 +2738,7 @@
         <v>12</v>
       </c>
       <c r="CT6" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="CU6" t="n">
         <v>64</v>
@@ -2759,10 +2759,10 @@
         <v>11</v>
       </c>
       <c r="DA6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="DB6" t="n">
-        <v>59.090909090909</v>
+        <v>60.869565217391</v>
       </c>
       <c r="DC6" t="n">
         <v>0</v>
@@ -2774,10 +2774,10 @@
         <v>0</v>
       </c>
       <c r="DF6" t="n">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="DG6" t="n">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="DH6" t="n">
         <v>0</v>
@@ -2815,16 +2815,16 @@
         <v>927405</v>
       </c>
       <c r="E7" t="n">
-        <v>6.7842105263158</v>
+        <v>6.76</v>
       </c>
       <c r="F7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H7" t="n">
-        <v>792</v>
+        <v>853</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -2836,7 +2836,7 @@
         <v>1.7142</v>
       </c>
       <c r="L7" t="n">
-        <v>396</v>
+        <v>426.5</v>
       </c>
       <c r="M7" t="n">
         <v>15</v>
@@ -2881,10 +2881,10 @@
         <v>1</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.65517116</v>
+        <v>0.66119304</v>
       </c>
       <c r="AB7" t="n">
-        <v>363</v>
+        <v>381</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -2893,22 +2893,22 @@
         <v>5</v>
       </c>
       <c r="AE7" t="n">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="AF7" t="n">
-        <v>76.681614349776</v>
+        <v>75.536480686695</v>
       </c>
       <c r="AG7" t="n">
-        <v>223</v>
+        <v>233</v>
       </c>
       <c r="AH7" t="n">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="AI7" t="n">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="AJ7" t="n">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="AK7" t="n">
         <v>3</v>
@@ -2917,13 +2917,13 @@
         <v>33.333333333333</v>
       </c>
       <c r="AM7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AN7" t="n">
-        <v>13.636363636364</v>
+        <v>17.391304347826</v>
       </c>
       <c r="AO7" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AP7" t="n">
         <v>15</v>
@@ -2938,7 +2938,7 @@
         <v>8</v>
       </c>
       <c r="AT7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU7" t="n">
         <v>3</v>
@@ -2962,13 +2962,13 @@
         <v>46</v>
       </c>
       <c r="BB7" t="n">
-        <v>50</v>
+        <v>49.462365591398</v>
       </c>
       <c r="BC7" t="n">
         <v>39</v>
       </c>
       <c r="BD7" t="n">
-        <v>62.903225806452</v>
+        <v>61.904761904762</v>
       </c>
       <c r="BE7" t="n">
         <v>7</v>
@@ -2977,7 +2977,7 @@
         <v>23.333333333333</v>
       </c>
       <c r="BG7" t="n">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="BH7" t="n">
         <v>7</v>
@@ -2986,7 +2986,7 @@
         <v>18</v>
       </c>
       <c r="BJ7" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BK7" t="n">
         <v>0</v>
@@ -3001,22 +3001,22 @@
         <v>0</v>
       </c>
       <c r="BO7" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="BP7" t="n">
         <v>0</v>
       </c>
       <c r="BQ7" t="n">
-        <v>128.9</v>
+        <v>135.2</v>
       </c>
       <c r="BR7" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS7" t="n">
         <v>3</v>
       </c>
       <c r="BT7" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="BU7" t="n">
         <v>0</v>
@@ -3040,7 +3040,7 @@
         <v>7</v>
       </c>
       <c r="CB7" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CC7" t="n">
         <v>22</v>
@@ -3064,7 +3064,7 @@
         <v>0</v>
       </c>
       <c r="CJ7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="CK7" t="n">
         <v>1</v>
@@ -3094,10 +3094,10 @@
         <v>11</v>
       </c>
       <c r="CT7" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="CU7" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="CV7" t="n">
         <v>23</v>
@@ -3130,10 +3130,10 @@
         <v>0</v>
       </c>
       <c r="DF7" t="n">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="DG7" t="n">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="DH7" t="n">
         <v>0</v>
@@ -3171,16 +3171,16 @@
         <v>149479</v>
       </c>
       <c r="E8" t="n">
-        <v>6.815</v>
+        <v>6.8047619047619</v>
       </c>
       <c r="F8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H8" t="n">
-        <v>1775</v>
+        <v>1850</v>
       </c>
       <c r="I8" t="n">
         <v>1</v>
@@ -3189,13 +3189,13 @@
         <v>4</v>
       </c>
       <c r="K8" t="n">
-        <v>1.4934</v>
+        <v>1.539</v>
       </c>
       <c r="L8" t="n">
-        <v>443.75</v>
+        <v>462.5</v>
       </c>
       <c r="M8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N8" t="n">
         <v>8</v>
@@ -3204,7 +3204,7 @@
         <v>1</v>
       </c>
       <c r="P8" t="n">
-        <v>26.666666666667</v>
+        <v>25</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -3237,40 +3237,40 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.9076813500000001</v>
+        <v>0.95348725</v>
       </c>
       <c r="AB8" t="n">
-        <v>684</v>
+        <v>711</v>
       </c>
       <c r="AC8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AD8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AE8" t="n">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="AF8" t="n">
-        <v>64.928909952607</v>
+        <v>64.920273348519</v>
       </c>
       <c r="AG8" t="n">
-        <v>422</v>
+        <v>439</v>
       </c>
       <c r="AH8" t="n">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="AI8" t="n">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="AJ8" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="AK8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AL8" t="n">
-        <v>28.571428571429</v>
+        <v>28.813559322034</v>
       </c>
       <c r="AM8" t="n">
         <v>5</v>
@@ -3279,22 +3279,22 @@
         <v>31.25</v>
       </c>
       <c r="AO8" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP8" t="n">
         <v>51</v>
       </c>
       <c r="AQ8" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AR8" t="n">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="AS8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AT8" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="AU8" t="n">
         <v>6</v>
@@ -3315,28 +3315,28 @@
         <v>25</v>
       </c>
       <c r="BA8" t="n">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="BB8" t="n">
-        <v>51.764705882353</v>
+        <v>51.123595505618</v>
       </c>
       <c r="BC8" t="n">
         <v>65</v>
       </c>
       <c r="BD8" t="n">
-        <v>54.621848739496</v>
+        <v>53.27868852459</v>
       </c>
       <c r="BE8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="BF8" t="n">
-        <v>45.098039215686</v>
+        <v>46.428571428571</v>
       </c>
       <c r="BG8" t="n">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="BH8" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BI8" t="n">
         <v>13</v>
@@ -3357,28 +3357,28 @@
         <v>4</v>
       </c>
       <c r="BO8" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="BP8" t="n">
         <v>0</v>
       </c>
       <c r="BQ8" t="n">
-        <v>136.3</v>
+        <v>142.9</v>
       </c>
       <c r="BR8" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BS8" t="n">
         <v>4</v>
       </c>
       <c r="BT8" t="n">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
       </c>
       <c r="BV8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BW8" t="n">
         <v>0</v>
@@ -3393,16 +3393,16 @@
         <v>11</v>
       </c>
       <c r="CA8" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CB8" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="CC8" t="n">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="CD8" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="CE8" t="n">
         <v>0</v>
@@ -3420,7 +3420,7 @@
         <v>0</v>
       </c>
       <c r="CJ8" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="CK8" t="n">
         <v>3</v>
@@ -3444,7 +3444,7 @@
         <v>0</v>
       </c>
       <c r="CR8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CS8" t="n">
         <v>8</v>
@@ -3453,10 +3453,10 @@
         <v>16</v>
       </c>
       <c r="CU8" t="n">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="CV8" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="CW8" t="n">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="DA8" t="n">
         <v>31</v>
@@ -3486,16 +3486,16 @@
         <v>0</v>
       </c>
       <c r="DF8" t="n">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="DG8" t="n">
-        <v>236</v>
+        <v>248</v>
       </c>
       <c r="DH8" t="n">
         <v>0</v>
       </c>
       <c r="DI8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="DJ8" t="n">
         <v>2163231</v>
@@ -4239,16 +4239,16 @@
         <v>825740</v>
       </c>
       <c r="E11" t="n">
-        <v>6.5666666666667</v>
+        <v>6.5692307692308</v>
       </c>
       <c r="F11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
       </c>
       <c r="H11" t="n">
-        <v>245</v>
+        <v>260</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -4305,10 +4305,10 @@
         <v>0</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.21052551</v>
+        <v>0.21551216</v>
       </c>
       <c r="AB11" t="n">
-        <v>122</v>
+        <v>133</v>
       </c>
       <c r="AC11" t="n">
         <v>0</v>
@@ -4317,22 +4317,22 @@
         <v>4</v>
       </c>
       <c r="AE11" t="n">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="AF11" t="n">
-        <v>78.378378378378</v>
+        <v>80.246913580247</v>
       </c>
       <c r="AG11" t="n">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="AH11" t="n">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="AI11" t="n">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="AJ11" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AK11" t="n">
         <v>4</v>
@@ -4350,13 +4350,13 @@
         <v>3</v>
       </c>
       <c r="AP11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AR11" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="AS11" t="n">
         <v>0</v>
@@ -4377,22 +4377,22 @@
         <v>0</v>
       </c>
       <c r="AY11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AZ11" t="n">
-        <v>60</v>
+        <v>66.666666666667</v>
       </c>
       <c r="BA11" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BB11" t="n">
-        <v>53.125</v>
+        <v>55.555555555556</v>
       </c>
       <c r="BC11" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="BD11" t="n">
-        <v>52.380952380952</v>
+        <v>56</v>
       </c>
       <c r="BE11" t="n">
         <v>6</v>
@@ -4401,13 +4401,13 @@
         <v>54.545454545455</v>
       </c>
       <c r="BG11" t="n">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="BH11" t="n">
         <v>4</v>
       </c>
       <c r="BI11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ11" t="n">
         <v>0</v>
@@ -4425,16 +4425,16 @@
         <v>0</v>
       </c>
       <c r="BO11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BP11" t="n">
         <v>0</v>
       </c>
       <c r="BQ11" t="n">
-        <v>78.8</v>
+        <v>85.40000000000001</v>
       </c>
       <c r="BR11" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BS11" t="n">
         <v>0</v>
@@ -4464,7 +4464,7 @@
         <v>1</v>
       </c>
       <c r="CB11" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="CC11" t="n">
         <v>6</v>
@@ -4488,7 +4488,7 @@
         <v>0</v>
       </c>
       <c r="CJ11" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CK11" t="n">
         <v>0</v>
@@ -4515,13 +4515,13 @@
         <v>4</v>
       </c>
       <c r="CS11" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CT11" t="n">
         <v>7</v>
       </c>
       <c r="CU11" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="CV11" t="n">
         <v>5</v>
@@ -4539,10 +4539,10 @@
         <v>6</v>
       </c>
       <c r="DA11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="DB11" t="n">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="DC11" t="n">
         <v>0</v>
@@ -4554,10 +4554,10 @@
         <v>0</v>
       </c>
       <c r="DF11" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="DG11" t="n">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="DH11" t="n">
         <v>0</v>
@@ -4595,16 +4595,16 @@
         <v>48557</v>
       </c>
       <c r="E12" t="n">
-        <v>6.8111111111111</v>
+        <v>6.8368421052632</v>
       </c>
       <c r="F12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G12" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H12" t="n">
-        <v>1172</v>
+        <v>1262</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -4661,70 +4661,70 @@
         <v>2</v>
       </c>
       <c r="AA12" t="n">
-        <v>3.71962247</v>
+        <v>3.93396947</v>
       </c>
       <c r="AB12" t="n">
-        <v>784</v>
+        <v>856</v>
       </c>
       <c r="AC12" t="n">
         <v>6</v>
       </c>
       <c r="AD12" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="AE12" t="n">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="AF12" t="n">
-        <v>60.869565217391</v>
+        <v>62.700228832952</v>
       </c>
       <c r="AG12" t="n">
-        <v>391</v>
+        <v>437</v>
       </c>
       <c r="AH12" t="n">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="AI12" t="n">
-        <v>114</v>
+        <v>132</v>
       </c>
       <c r="AJ12" t="n">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="AK12" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="AL12" t="n">
-        <v>30</v>
+        <v>30.275229357798</v>
       </c>
       <c r="AM12" t="n">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="AN12" t="n">
-        <v>29.92125984252</v>
+        <v>29.770992366412</v>
       </c>
       <c r="AO12" t="n">
         <v>6</v>
       </c>
       <c r="AP12" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AQ12" t="n">
         <v>2</v>
       </c>
       <c r="AR12" t="n">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="AS12" t="n">
         <v>7</v>
       </c>
       <c r="AT12" t="n">
-        <v>48</v>
+        <v>54</v>
       </c>
       <c r="AU12" t="n">
         <v>2</v>
       </c>
       <c r="AV12" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW12" t="n">
         <v>0</v>
@@ -4739,31 +4739,31 @@
         <v>25</v>
       </c>
       <c r="BA12" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="BB12" t="n">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="BC12" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="BD12" t="n">
-        <v>48.333333333333</v>
+        <v>50</v>
       </c>
       <c r="BE12" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BF12" t="n">
-        <v>46.666666666667</v>
+        <v>50</v>
       </c>
       <c r="BG12" t="n">
-        <v>302</v>
+        <v>321</v>
       </c>
       <c r="BH12" t="n">
         <v>19</v>
       </c>
       <c r="BI12" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BJ12" t="n">
         <v>0</v>
@@ -4781,22 +4781,22 @@
         <v>2</v>
       </c>
       <c r="BO12" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BP12" t="n">
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>122.6</v>
+        <v>129.9</v>
       </c>
       <c r="BR12" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BS12" t="n">
         <v>2</v>
       </c>
       <c r="BT12" t="n">
-        <v>153</v>
+        <v>163</v>
       </c>
       <c r="BU12" t="n">
         <v>0</v>
@@ -4823,10 +4823,10 @@
         <v>3</v>
       </c>
       <c r="CC12" t="n">
-        <v>92</v>
+        <v>102</v>
       </c>
       <c r="CD12" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="CE12" t="n">
         <v>0</v>
@@ -4844,7 +4844,7 @@
         <v>0</v>
       </c>
       <c r="CJ12" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="CK12" t="n">
         <v>2</v>
@@ -4868,58 +4868,58 @@
         <v>0</v>
       </c>
       <c r="CR12" t="n">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="CS12" t="n">
         <v>4</v>
       </c>
       <c r="CT12" t="n">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="CU12" t="n">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="CV12" t="n">
+        <v>10</v>
+      </c>
+      <c r="CW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY12" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ12" t="n">
+        <v>109</v>
+      </c>
+      <c r="DA12" t="n">
+        <v>16</v>
+      </c>
+      <c r="DB12" t="n">
+        <v>69.565217391304</v>
+      </c>
+      <c r="DC12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DD12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DE12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DF12" t="n">
+        <v>181</v>
+      </c>
+      <c r="DG12" t="n">
+        <v>256</v>
+      </c>
+      <c r="DH12" t="n">
+        <v>0</v>
+      </c>
+      <c r="DI12" t="n">
         <v>8</v>
-      </c>
-      <c r="CW12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY12" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ12" t="n">
-        <v>100</v>
-      </c>
-      <c r="DA12" t="n">
-        <v>15</v>
-      </c>
-      <c r="DB12" t="n">
-        <v>68.181818181818</v>
-      </c>
-      <c r="DC12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DD12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DE12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DF12" t="n">
-        <v>162</v>
-      </c>
-      <c r="DG12" t="n">
-        <v>229</v>
-      </c>
-      <c r="DH12" t="n">
-        <v>0</v>
-      </c>
-      <c r="DI12" t="n">
-        <v>7</v>
       </c>
       <c r="DJ12" t="n">
         <v>2163239</v>
@@ -4951,16 +4951,16 @@
         <v>1198074</v>
       </c>
       <c r="E13" t="n">
-        <v>6.7894736842105</v>
+        <v>6.78</v>
       </c>
       <c r="F13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G13" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H13" t="n">
-        <v>1214</v>
+        <v>1297</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -5017,10 +5017,10 @@
         <v>0</v>
       </c>
       <c r="AA13" t="n">
-        <v>1.04155233</v>
+        <v>1.05853563</v>
       </c>
       <c r="AB13" t="n">
-        <v>754</v>
+        <v>800</v>
       </c>
       <c r="AC13" t="n">
         <v>1</v>
@@ -5029,52 +5029,52 @@
         <v>8</v>
       </c>
       <c r="AE13" t="n">
-        <v>445</v>
+        <v>470</v>
       </c>
       <c r="AF13" t="n">
-        <v>76.989619377163</v>
+        <v>77.049180327869</v>
       </c>
       <c r="AG13" t="n">
-        <v>578</v>
+        <v>610</v>
       </c>
       <c r="AH13" t="n">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="AI13" t="n">
-        <v>234</v>
+        <v>251</v>
       </c>
       <c r="AJ13" t="n">
-        <v>121</v>
+        <v>129</v>
       </c>
       <c r="AK13" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AL13" t="n">
-        <v>48.684210526316</v>
+        <v>50.632911392405</v>
       </c>
       <c r="AM13" t="n">
         <v>2</v>
       </c>
       <c r="AN13" t="n">
-        <v>28.571428571429</v>
+        <v>25</v>
       </c>
       <c r="AO13" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AP13" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="AQ13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AR13" t="n">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="AS13" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AT13" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AU13" t="n">
         <v>6</v>
@@ -5095,31 +5095,31 @@
         <v>66.666666666667</v>
       </c>
       <c r="BA13" t="n">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="BB13" t="n">
-        <v>55.645161290323</v>
+        <v>54.887218045113</v>
       </c>
       <c r="BC13" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="BD13" t="n">
-        <v>54.444444444444</v>
+        <v>52.577319587629</v>
       </c>
       <c r="BE13" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BF13" t="n">
-        <v>58.823529411765</v>
+        <v>61.111111111111</v>
       </c>
       <c r="BG13" t="n">
-        <v>169</v>
+        <v>181</v>
       </c>
       <c r="BH13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BI13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BJ13" t="n">
         <v>0</v>
@@ -5137,22 +5137,22 @@
         <v>0</v>
       </c>
       <c r="BO13" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BP13" t="n">
         <v>0</v>
       </c>
       <c r="BQ13" t="n">
-        <v>129</v>
+        <v>135.6</v>
       </c>
       <c r="BR13" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS13" t="n">
         <v>0</v>
       </c>
       <c r="BT13" t="n">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="BU13" t="n">
         <v>0</v>
@@ -5176,13 +5176,13 @@
         <v>7</v>
       </c>
       <c r="CB13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="CC13" t="n">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="CD13" t="n">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="CE13" t="n">
         <v>0</v>
@@ -5200,7 +5200,7 @@
         <v>0</v>
       </c>
       <c r="CJ13" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="CK13" t="n">
         <v>1</v>
@@ -5230,10 +5230,10 @@
         <v>18</v>
       </c>
       <c r="CT13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CU13" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="CV13" t="n">
         <v>14</v>
@@ -5248,13 +5248,13 @@
         <v>0</v>
       </c>
       <c r="CZ13" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="DA13" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="DB13" t="n">
-        <v>60</v>
+        <v>61.290322580645</v>
       </c>
       <c r="DC13" t="n">
         <v>0</v>
@@ -5266,16 +5266,16 @@
         <v>0</v>
       </c>
       <c r="DF13" t="n">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="DG13" t="n">
-        <v>342</v>
+        <v>366</v>
       </c>
       <c r="DH13" t="n">
         <v>0</v>
       </c>
       <c r="DI13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="DJ13" t="n">
         <v>2197597</v>
@@ -5307,16 +5307,16 @@
         <v>800252</v>
       </c>
       <c r="E14" t="n">
-        <v>6.575</v>
+        <v>6.5615384615385</v>
       </c>
       <c r="F14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" t="n">
         <v>2</v>
       </c>
       <c r="H14" t="n">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -5325,13 +5325,13 @@
         <v>1</v>
       </c>
       <c r="K14" t="n">
-        <v>0.7168</v>
+        <v>0.7657</v>
       </c>
       <c r="L14" t="n">
-        <v>355</v>
+        <v>384</v>
       </c>
       <c r="M14" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="N14" t="n">
         <v>5</v>
@@ -5340,7 +5340,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>10</v>
+        <v>9.090909090909101</v>
       </c>
       <c r="Q14" t="n">
         <v>0</v>
@@ -5373,34 +5373,34 @@
         <v>0</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.18932984</v>
+        <v>0.34513584</v>
       </c>
       <c r="AB14" t="n">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
       </c>
       <c r="AD14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AE14" t="n">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="AF14" t="n">
-        <v>68.131868131868</v>
+        <v>67.67676767676799</v>
       </c>
       <c r="AG14" t="n">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="AH14" t="n">
+        <v>28</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>39</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>26</v>
-      </c>
-      <c r="AI14" t="n">
-        <v>36</v>
-      </c>
-      <c r="AJ14" t="n">
-        <v>24</v>
       </c>
       <c r="AK14" t="n">
         <v>3</v>
@@ -5409,10 +5409,10 @@
         <v>33.333333333333</v>
       </c>
       <c r="AM14" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AN14" t="n">
-        <v>20</v>
+        <v>33.333333333333</v>
       </c>
       <c r="AO14" t="n">
         <v>0</v>
@@ -5421,10 +5421,10 @@
         <v>3</v>
       </c>
       <c r="AQ14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR14" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AS14" t="n">
         <v>2</v>
@@ -5448,34 +5448,34 @@
         <v>1</v>
       </c>
       <c r="AZ14" t="n">
-        <v>25</v>
+        <v>16.666666666667</v>
       </c>
       <c r="BA14" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>28.205128205128</v>
+      </c>
+      <c r="BC14" t="n">
         <v>10</v>
       </c>
-      <c r="BB14" t="n">
-        <v>28.571428571429</v>
-      </c>
-      <c r="BC14" t="n">
-        <v>9</v>
-      </c>
       <c r="BD14" t="n">
-        <v>39.130434782609</v>
+        <v>38.461538461538</v>
       </c>
       <c r="BE14" t="n">
         <v>1</v>
       </c>
       <c r="BF14" t="n">
-        <v>8.3333333333333</v>
+        <v>7.6923076923077</v>
       </c>
       <c r="BG14" t="n">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="BH14" t="n">
         <v>5</v>
       </c>
       <c r="BI14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ14" t="n">
         <v>3</v>
@@ -5493,40 +5493,40 @@
         <v>0</v>
       </c>
       <c r="BO14" t="n">
+        <v>8</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ14" t="n">
+        <v>85.3</v>
+      </c>
+      <c r="BR14" t="n">
+        <v>13</v>
+      </c>
+      <c r="BS14" t="n">
+        <v>1</v>
+      </c>
+      <c r="BT14" t="n">
+        <v>32</v>
+      </c>
+      <c r="BU14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BV14" t="n">
+        <v>6</v>
+      </c>
+      <c r="BW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ14" t="n">
         <v>7</v>
-      </c>
-      <c r="BP14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BQ14" t="n">
-        <v>78.90000000000001</v>
-      </c>
-      <c r="BR14" t="n">
-        <v>12</v>
-      </c>
-      <c r="BS14" t="n">
-        <v>1</v>
-      </c>
-      <c r="BT14" t="n">
-        <v>29</v>
-      </c>
-      <c r="BU14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BV14" t="n">
-        <v>5</v>
-      </c>
-      <c r="BW14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BY14" t="n">
-        <v>0</v>
-      </c>
-      <c r="BZ14" t="n">
-        <v>6</v>
       </c>
       <c r="CA14" t="n">
         <v>4</v>
@@ -5535,7 +5535,7 @@
         <v>4</v>
       </c>
       <c r="CC14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CD14" t="n">
         <v>5</v>
@@ -5556,7 +5556,7 @@
         <v>0</v>
       </c>
       <c r="CJ14" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="CK14" t="n">
         <v>0</v>
@@ -5580,19 +5580,19 @@
         <v>0</v>
       </c>
       <c r="CR14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CS14" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="CT14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CU14" t="n">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="CV14" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="CW14" t="n">
         <v>0</v>
@@ -5622,10 +5622,10 @@
         <v>0</v>
       </c>
       <c r="DF14" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="DG14" t="n">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="DH14" t="n">
         <v>0</v>
@@ -6375,16 +6375,16 @@
         <v>886737</v>
       </c>
       <c r="E17" t="n">
-        <v>6.6684210526316</v>
+        <v>6.66</v>
       </c>
       <c r="F17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G17" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="H17" t="n">
-        <v>1176</v>
+        <v>1266</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -6393,13 +6393,13 @@
         <v>0</v>
       </c>
       <c r="K17" t="n">
-        <v>0.5782</v>
+        <v>0.6307</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="N17" t="n">
         <v>2</v>
@@ -6435,70 +6435,70 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Z17" t="n">
         <v>1</v>
       </c>
       <c r="AA17" t="n">
-        <v>2.10308356</v>
+        <v>2.32697056</v>
       </c>
       <c r="AB17" t="n">
-        <v>701</v>
+        <v>756</v>
       </c>
       <c r="AC17" t="n">
         <v>3</v>
       </c>
       <c r="AD17" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AE17" t="n">
-        <v>261</v>
+        <v>282</v>
       </c>
       <c r="AF17" t="n">
-        <v>78.378378378378</v>
+        <v>77.685950413223</v>
       </c>
       <c r="AG17" t="n">
-        <v>333</v>
+        <v>363</v>
       </c>
       <c r="AH17" t="n">
-        <v>114</v>
+        <v>122</v>
       </c>
       <c r="AI17" t="n">
-        <v>147</v>
+        <v>160</v>
       </c>
       <c r="AJ17" t="n">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="AK17" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL17" t="n">
-        <v>36.585365853659</v>
+        <v>35.416666666667</v>
       </c>
       <c r="AM17" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN17" t="n">
-        <v>25.757575757576</v>
+        <v>26.388888888889</v>
       </c>
       <c r="AO17" t="n">
         <v>6</v>
       </c>
       <c r="AP17" t="n">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="AQ17" t="n">
         <v>4</v>
       </c>
       <c r="AR17" t="n">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="AS17" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AT17" t="n">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="AU17" t="n">
         <v>6</v>
@@ -6516,31 +6516,31 @@
         <v>8</v>
       </c>
       <c r="AZ17" t="n">
-        <v>50</v>
+        <v>47.058823529412</v>
       </c>
       <c r="BA17" t="n">
+        <v>46</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>42.592592592593</v>
+      </c>
+      <c r="BC17" t="n">
         <v>43</v>
       </c>
-      <c r="BB17" t="n">
-        <v>43.434343434343</v>
-      </c>
-      <c r="BC17" t="n">
-        <v>40</v>
-      </c>
       <c r="BD17" t="n">
-        <v>43.010752688172</v>
+        <v>43</v>
       </c>
       <c r="BE17" t="n">
         <v>3</v>
       </c>
       <c r="BF17" t="n">
-        <v>50</v>
+        <v>37.5</v>
       </c>
       <c r="BG17" t="n">
-        <v>192</v>
+        <v>209</v>
       </c>
       <c r="BH17" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BI17" t="n">
         <v>11</v>
@@ -6561,28 +6561,28 @@
         <v>1</v>
       </c>
       <c r="BO17" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="BP17" t="n">
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>126.7</v>
+        <v>133.2</v>
       </c>
       <c r="BR17" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BS17" t="n">
         <v>1</v>
       </c>
       <c r="BT17" t="n">
-        <v>72</v>
+        <v>81</v>
       </c>
       <c r="BU17" t="n">
         <v>1</v>
       </c>
       <c r="BV17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BW17" t="n">
         <v>0</v>
@@ -6591,22 +6591,22 @@
         <v>0</v>
       </c>
       <c r="BY17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BZ17" t="n">
         <v>10</v>
       </c>
       <c r="CA17" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="CB17" t="n">
         <v>19</v>
       </c>
       <c r="CC17" t="n">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="CD17" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="CE17" t="n">
         <v>0</v>
@@ -6624,61 +6624,61 @@
         <v>0</v>
       </c>
       <c r="CJ17" t="n">
+        <v>18</v>
+      </c>
+      <c r="CK17" t="n">
+        <v>2</v>
+      </c>
+      <c r="CL17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CN17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CQ17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR17" t="n">
+        <v>16</v>
+      </c>
+      <c r="CS17" t="n">
+        <v>17</v>
+      </c>
+      <c r="CT17" t="n">
+        <v>72</v>
+      </c>
+      <c r="CU17" t="n">
+        <v>62</v>
+      </c>
+      <c r="CV17" t="n">
+        <v>5</v>
+      </c>
+      <c r="CW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CX17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY17" t="n">
+        <v>0</v>
+      </c>
+      <c r="CZ17" t="n">
+        <v>48</v>
+      </c>
+      <c r="DA17" t="n">
         <v>15</v>
       </c>
-      <c r="CK17" t="n">
-        <v>2</v>
-      </c>
-      <c r="CL17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CM17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CN17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CO17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CP17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CQ17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CR17" t="n">
-        <v>14</v>
-      </c>
-      <c r="CS17" t="n">
-        <v>16</v>
-      </c>
-      <c r="CT17" t="n">
-        <v>66</v>
-      </c>
-      <c r="CU17" t="n">
-        <v>56</v>
-      </c>
-      <c r="CV17" t="n">
-        <v>3</v>
-      </c>
-      <c r="CW17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CY17" t="n">
-        <v>0</v>
-      </c>
-      <c r="CZ17" t="n">
-        <v>41</v>
-      </c>
-      <c r="DA17" t="n">
-        <v>13</v>
-      </c>
       <c r="DB17" t="n">
-        <v>61.904761904762</v>
+        <v>62.5</v>
       </c>
       <c r="DC17" t="n">
         <v>0</v>
@@ -6690,10 +6690,10 @@
         <v>0</v>
       </c>
       <c r="DF17" t="n">
-        <v>132</v>
+        <v>142</v>
       </c>
       <c r="DG17" t="n">
-        <v>201</v>
+        <v>221</v>
       </c>
       <c r="DH17" t="n">
         <v>0</v>
@@ -6731,52 +6731,52 @@
         <v>1086547</v>
       </c>
       <c r="E18" t="n">
-        <v>6.9238095238095</v>
+        <v>6.9272727272727</v>
       </c>
       <c r="F18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H18" t="n">
-        <v>1890</v>
+        <v>1980</v>
       </c>
       <c r="I18" t="n">
         <v>2</v>
       </c>
       <c r="J18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="K18" t="n">
-        <v>2.5959</v>
+        <v>3.3843</v>
       </c>
       <c r="L18" t="n">
-        <v>1890</v>
+        <v>990</v>
       </c>
       <c r="M18" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N18" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O18" t="n">
         <v>2</v>
       </c>
       <c r="P18" t="n">
-        <v>4.3478260869565</v>
+        <v>8.3333333333333</v>
       </c>
       <c r="Q18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R18" t="n">
-        <v>50</v>
+        <v>66.666666666667</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
       </c>
       <c r="T18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="U18" t="n">
         <v>0</v>
@@ -6788,7 +6788,7 @@
         <v>0</v>
       </c>
       <c r="X18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y18" t="n">
         <v>2</v>
@@ -6797,10 +6797,10 @@
         <v>0</v>
       </c>
       <c r="AA18" t="n">
-        <v>1.51334301</v>
+        <v>1.54001741</v>
       </c>
       <c r="AB18" t="n">
-        <v>1164</v>
+        <v>1217</v>
       </c>
       <c r="AC18" t="n">
         <v>3</v>
@@ -6809,28 +6809,28 @@
         <v>17</v>
       </c>
       <c r="AE18" t="n">
-        <v>681</v>
+        <v>714</v>
       </c>
       <c r="AF18" t="n">
-        <v>81.362007168459</v>
+        <v>81.693363844394</v>
       </c>
       <c r="AG18" t="n">
-        <v>837</v>
+        <v>874</v>
       </c>
       <c r="AH18" t="n">
-        <v>452</v>
+        <v>473</v>
       </c>
       <c r="AI18" t="n">
-        <v>229</v>
+        <v>241</v>
       </c>
       <c r="AJ18" t="n">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="AK18" t="n">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="AL18" t="n">
-        <v>56.571428571429</v>
+        <v>56.906077348066</v>
       </c>
       <c r="AM18" t="n">
         <v>0</v>
@@ -6839,22 +6839,22 @@
         <v>0</v>
       </c>
       <c r="AO18" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AP18" t="n">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AQ18" t="n">
         <v>1</v>
       </c>
       <c r="AR18" t="n">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="AS18" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AT18" t="n">
-        <v>146</v>
+        <v>152</v>
       </c>
       <c r="AU18" t="n">
         <v>5</v>
@@ -6875,31 +6875,31 @@
         <v>75</v>
       </c>
       <c r="BA18" t="n">
-        <v>148</v>
+        <v>154</v>
       </c>
       <c r="BB18" t="n">
-        <v>62.447257383966</v>
+        <v>62.857142857143</v>
       </c>
       <c r="BC18" t="n">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="BD18" t="n">
         <v>60</v>
       </c>
       <c r="BE18" t="n">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="BF18" t="n">
-        <v>64.39393939393899</v>
+        <v>65.18518518518501</v>
       </c>
       <c r="BG18" t="n">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="BH18" t="n">
         <v>33</v>
       </c>
       <c r="BI18" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BJ18" t="n">
         <v>0</v>
@@ -6917,22 +6917,22 @@
         <v>4</v>
       </c>
       <c r="BO18" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="BP18" t="n">
         <v>0</v>
       </c>
       <c r="BQ18" t="n">
-        <v>145.4</v>
+        <v>152.4</v>
       </c>
       <c r="BR18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BT18" t="n">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="BU18" t="n">
         <v>0</v>
@@ -6941,7 +6941,7 @@
         <v>10</v>
       </c>
       <c r="BW18" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BX18" t="n">
         <v>0</v>
@@ -6950,7 +6950,7 @@
         <v>2</v>
       </c>
       <c r="BZ18" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="CA18" t="n">
         <v>3</v>
@@ -6959,10 +6959,10 @@
         <v>3</v>
       </c>
       <c r="CC18" t="n">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="CD18" t="n">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="CE18" t="n">
         <v>0</v>
@@ -6980,7 +6980,7 @@
         <v>0</v>
       </c>
       <c r="CJ18" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="CK18" t="n">
         <v>3</v>
@@ -7010,10 +7010,10 @@
         <v>4</v>
       </c>
       <c r="CT18" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="CU18" t="n">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="CV18" t="n">
         <v>47</v>
@@ -7028,13 +7028,13 @@
         <v>1</v>
       </c>
       <c r="CZ18" t="n">
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="DA18" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="DB18" t="n">
-        <v>58.333333333333</v>
+        <v>57.894736842105</v>
       </c>
       <c r="DC18" t="n">
         <v>0</v>
@@ -7046,10 +7046,10 @@
         <v>0</v>
       </c>
       <c r="DF18" t="n">
-        <v>480</v>
+        <v>501</v>
       </c>
       <c r="DG18" t="n">
-        <v>357</v>
+        <v>373</v>
       </c>
       <c r="DH18" t="n">
         <v>12</v>
@@ -7443,16 +7443,16 @@
         <v>830803</v>
       </c>
       <c r="E20" t="n">
-        <v>6.8238095238095</v>
+        <v>6.7818181818182</v>
       </c>
       <c r="F20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H20" t="n">
-        <v>1890</v>
+        <v>1980</v>
       </c>
       <c r="I20" t="n">
         <v>2</v>
@@ -7461,22 +7461,22 @@
         <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>2.8644</v>
+        <v>3.0102</v>
       </c>
       <c r="L20" t="n">
-        <v>472.5</v>
+        <v>495</v>
       </c>
       <c r="M20" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="N20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O20" t="n">
         <v>2</v>
       </c>
       <c r="P20" t="n">
-        <v>13.793103448276</v>
+        <v>12.903225806452</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
@@ -7509,10 +7509,10 @@
         <v>0</v>
       </c>
       <c r="AA20" t="n">
-        <v>1.12226053</v>
+        <v>1.37699053</v>
       </c>
       <c r="AB20" t="n">
-        <v>1014</v>
+        <v>1074</v>
       </c>
       <c r="AC20" t="n">
         <v>0</v>
@@ -7521,28 +7521,28 @@
         <v>6</v>
       </c>
       <c r="AE20" t="n">
-        <v>547</v>
+        <v>580</v>
       </c>
       <c r="AF20" t="n">
-        <v>76.71809256662</v>
+        <v>76.517150395778</v>
       </c>
       <c r="AG20" t="n">
-        <v>713</v>
+        <v>758</v>
       </c>
       <c r="AH20" t="n">
-        <v>349</v>
+        <v>369</v>
       </c>
       <c r="AI20" t="n">
-        <v>198</v>
+        <v>211</v>
       </c>
       <c r="AJ20" t="n">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="AK20" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="AL20" t="n">
-        <v>32.539682539683</v>
+        <v>31.111111111111</v>
       </c>
       <c r="AM20" t="n">
         <v>1</v>
@@ -7551,22 +7551,22 @@
         <v>16.666666666667</v>
       </c>
       <c r="AO20" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AP20" t="n">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="AQ20" t="n">
         <v>2</v>
       </c>
       <c r="AR20" t="n">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="AS20" t="n">
         <v>9</v>
       </c>
       <c r="AT20" t="n">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="AU20" t="n">
         <v>5</v>
@@ -7587,28 +7587,28 @@
         <v>50</v>
       </c>
       <c r="BA20" t="n">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="BB20" t="n">
-        <v>64.09090909090899</v>
+        <v>63.478260869565</v>
       </c>
       <c r="BC20" t="n">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="BD20" t="n">
-        <v>58.441558441558</v>
+        <v>58.227848101266</v>
       </c>
       <c r="BE20" t="n">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="BF20" t="n">
-        <v>67.13286713286701</v>
+        <v>66.225165562914</v>
       </c>
       <c r="BG20" t="n">
-        <v>194</v>
+        <v>208</v>
       </c>
       <c r="BH20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BI20" t="n">
         <v>12</v>
@@ -7629,28 +7629,28 @@
         <v>4</v>
       </c>
       <c r="BO20" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="BP20" t="n">
         <v>0</v>
       </c>
       <c r="BQ20" t="n">
-        <v>143.3</v>
+        <v>149.2</v>
       </c>
       <c r="BR20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS20" t="n">
         <v>4</v>
       </c>
       <c r="BT20" t="n">
-        <v>166</v>
+        <v>178</v>
       </c>
       <c r="BU20" t="n">
         <v>0</v>
       </c>
       <c r="BV20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BW20" t="n">
         <v>0</v>
@@ -7662,7 +7662,7 @@
         <v>0</v>
       </c>
       <c r="BZ20" t="n">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="CA20" t="n">
         <v>0</v>
@@ -7671,10 +7671,10 @@
         <v>3</v>
       </c>
       <c r="CC20" t="n">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="CD20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="CE20" t="n">
         <v>0</v>
@@ -7692,7 +7692,7 @@
         <v>0</v>
       </c>
       <c r="CJ20" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="CK20" t="n">
         <v>3</v>
@@ -7725,10 +7725,10 @@
         <v>6</v>
       </c>
       <c r="CU20" t="n">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="CV20" t="n">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="CW20" t="n">
         <v>0</v>
@@ -7740,13 +7740,13 @@
         <v>0</v>
       </c>
       <c r="CZ20" t="n">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="DA20" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="DB20" t="n">
-        <v>72.727272727273</v>
+        <v>73.529411764706</v>
       </c>
       <c r="DC20" t="n">
         <v>0</v>
@@ -7758,10 +7758,10 @@
         <v>0</v>
       </c>
       <c r="DF20" t="n">
-        <v>389</v>
+        <v>411</v>
       </c>
       <c r="DG20" t="n">
-        <v>324</v>
+        <v>347</v>
       </c>
       <c r="DH20" t="n">
         <v>0</v>
@@ -7802,13 +7802,13 @@
         <v>6.6</v>
       </c>
       <c r="F21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="H21" t="n">
-        <v>277</v>
+        <v>360</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
@@ -7820,7 +7820,7 @@
         <v>0.1511</v>
       </c>
       <c r="L21" t="n">
-        <v>277</v>
+        <v>360</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
@@ -7865,10 +7865,10 @@
         <v>1</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.17540741</v>
+        <v>0.23369781</v>
       </c>
       <c r="AB21" t="n">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c r="AC21" t="n">
         <v>0</v>
@@ -7877,28 +7877,28 @@
         <v>1</v>
       </c>
       <c r="AE21" t="n">
-        <v>68</v>
+        <v>91</v>
       </c>
       <c r="AF21" t="n">
-        <v>64.761904761905</v>
+        <v>63.636363636364</v>
       </c>
       <c r="AG21" t="n">
-        <v>105</v>
+        <v>143</v>
       </c>
       <c r="AH21" t="n">
-        <v>35</v>
+        <v>48</v>
       </c>
       <c r="AI21" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="AJ21" t="n">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="AK21" t="n">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="AL21" t="n">
-        <v>36.666666666667</v>
+        <v>31.818181818182</v>
       </c>
       <c r="AM21" t="n">
         <v>3</v>
@@ -7907,22 +7907,22 @@
         <v>27.272727272727</v>
       </c>
       <c r="AO21" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AP21" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AQ21" t="n">
         <v>0</v>
       </c>
       <c r="AR21" t="n">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="AS21" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AT21" t="n">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -7937,37 +7937,37 @@
         <v>0</v>
       </c>
       <c r="AY21" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ21" t="n">
-        <v>33.333333333333</v>
+        <v>50</v>
       </c>
       <c r="BA21" t="n">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="BB21" t="n">
-        <v>66.666666666667</v>
+        <v>70.58823529411799</v>
       </c>
       <c r="BC21" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BD21" t="n">
-        <v>53.846153846154</v>
+        <v>63.157894736842</v>
       </c>
       <c r="BE21" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="BF21" t="n">
-        <v>87.5</v>
+        <v>80</v>
       </c>
       <c r="BG21" t="n">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="BH21" t="n">
         <v>3</v>
       </c>
       <c r="BI21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BJ21" t="n">
         <v>0</v>
@@ -7985,22 +7985,22 @@
         <v>0</v>
       </c>
       <c r="BO21" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BP21" t="n">
         <v>0</v>
       </c>
       <c r="BQ21" t="n">
-        <v>39.6</v>
+        <v>46.2</v>
       </c>
       <c r="BR21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BS21" t="n">
         <v>2</v>
       </c>
       <c r="BT21" t="n">
-        <v>37</v>
+        <v>52</v>
       </c>
       <c r="BU21" t="n">
         <v>0</v>
@@ -8027,10 +8027,10 @@
         <v>2</v>
       </c>
       <c r="CC21" t="n">
-        <v>18</v>
+        <v>28</v>
       </c>
       <c r="CD21" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="CE21" t="n">
         <v>0</v>
@@ -8048,7 +8048,7 @@
         <v>0</v>
       </c>
       <c r="CJ21" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="CK21" t="n">
         <v>0</v>
@@ -8075,16 +8075,16 @@
         <v>1</v>
       </c>
       <c r="CS21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="CT21" t="n">
         <v>11</v>
       </c>
       <c r="CU21" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="CV21" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="CW21" t="n">
         <v>0</v>
@@ -8096,13 +8096,13 @@
         <v>0</v>
       </c>
       <c r="CZ21" t="n">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="DA21" t="n">
         <v>4</v>
       </c>
       <c r="DB21" t="n">
-        <v>80</v>
+        <v>57.142857142857</v>
       </c>
       <c r="DC21" t="n">
         <v>0</v>
@@ -8114,10 +8114,10 @@
         <v>0</v>
       </c>
       <c r="DF21" t="n">
-        <v>44</v>
+        <v>59</v>
       </c>
       <c r="DG21" t="n">
-        <v>61</v>
+        <v>84</v>
       </c>
       <c r="DH21" t="n">
         <v>0</v>
@@ -8155,16 +8155,16 @@
         <v>137692</v>
       </c>
       <c r="E22" t="n">
-        <v>6.8571428571429</v>
+        <v>6.8090909090909</v>
       </c>
       <c r="F22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H22" t="n">
-        <v>1890</v>
+        <v>1980</v>
       </c>
       <c r="I22" t="n">
         <v>2</v>
@@ -8219,10 +8219,10 @@
         <v>0</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.07769229</v>
+        <v>0.07997988</v>
       </c>
       <c r="AB22" t="n">
-        <v>845</v>
+        <v>879</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -8231,28 +8231,28 @@
         <v>2</v>
       </c>
       <c r="AE22" t="n">
-        <v>354</v>
+        <v>368</v>
       </c>
       <c r="AF22" t="n">
-        <v>54.294478527607</v>
+        <v>54.19734904271</v>
       </c>
       <c r="AG22" t="n">
-        <v>652</v>
+        <v>679</v>
       </c>
       <c r="AH22" t="n">
-        <v>240</v>
+        <v>249</v>
       </c>
       <c r="AI22" t="n">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="AJ22" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="AK22" t="n">
-        <v>155</v>
+        <v>161</v>
       </c>
       <c r="AL22" t="n">
-        <v>34.368070953437</v>
+        <v>34.255319148936</v>
       </c>
       <c r="AM22" t="n">
         <v>0</v>
@@ -8270,19 +8270,19 @@
         <v>0</v>
       </c>
       <c r="AR22" t="n">
-        <v>204</v>
+        <v>213</v>
       </c>
       <c r="AS22" t="n">
         <v>2</v>
       </c>
       <c r="AT22" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AU22" t="n">
         <v>0</v>
       </c>
       <c r="AV22" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AW22" t="n">
         <v>1</v>
@@ -8315,7 +8315,7 @@
         <v>100</v>
       </c>
       <c r="BG22" t="n">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="BH22" t="n">
         <v>1</v>
@@ -8333,28 +8333,28 @@
         <v>0</v>
       </c>
       <c r="BM22" t="n">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="BN22" t="n">
         <v>4</v>
       </c>
       <c r="BO22" t="n">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="BP22" t="n">
         <v>0</v>
       </c>
       <c r="BQ22" t="n">
-        <v>144</v>
+        <v>149.8</v>
       </c>
       <c r="BR22" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BS22" t="n">
         <v>0</v>
       </c>
       <c r="BT22" t="n">
-        <v>298</v>
+        <v>311</v>
       </c>
       <c r="BU22" t="n">
         <v>0</v>
@@ -8396,13 +8396,13 @@
         <v>5</v>
       </c>
       <c r="CH22" t="n">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="CI22" t="n">
         <v>17</v>
       </c>
       <c r="CJ22" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="CK22" t="n">
         <v>3</v>
@@ -8411,10 +8411,10 @@
         <v>8</v>
       </c>
       <c r="CM22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CN22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="CO22" t="n">
         <v>25</v>
@@ -8450,7 +8450,7 @@
         <v>0</v>
       </c>
       <c r="CZ22" t="n">
-        <v>451</v>
+        <v>470</v>
       </c>
       <c r="DA22" t="n">
         <v>1</v>
@@ -8468,13 +8468,13 @@
         <v>10</v>
       </c>
       <c r="DF22" t="n">
-        <v>273</v>
+        <v>283</v>
       </c>
       <c r="DG22" t="n">
-        <v>379</v>
+        <v>396</v>
       </c>
       <c r="DH22" t="n">
-        <v>143</v>
+        <v>152</v>
       </c>
       <c r="DI22" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         </is>
       </c>
       <c r="DL22" t="n">
-        <v>-2.7014</v>
+        <v>-3.7046</v>
       </c>
     </row>
   </sheetData>

--- a/sofaplayer/Bundesliga/1. FC Union Berlin_stats.xlsx
+++ b/sofaplayer/Bundesliga/1. FC Union Berlin_stats.xlsx
@@ -1104,7 +1104,7 @@
         <v>0.90830733</v>
       </c>
       <c r="AB2" t="n">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="AC2" t="n">
         <v>1</v>
@@ -1197,7 +1197,7 @@
         <v>24.074074074074</v>
       </c>
       <c r="BG2" t="n">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="BH2" t="n">
         <v>16</v>
@@ -1391,7 +1391,7 @@
         <v>953767</v>
       </c>
       <c r="E3" t="n">
-        <v>6.5190476190476</v>
+        <v>6.5238095238095</v>
       </c>
       <c r="F3" t="n">
         <v>21</v>
@@ -1583,7 +1583,7 @@
         <v>0</v>
       </c>
       <c r="BQ3" t="n">
-        <v>136.9</v>
+        <v>137</v>
       </c>
       <c r="BR3" t="n">
         <v>21</v>
@@ -1816,7 +1816,7 @@
         <v>1.30813944</v>
       </c>
       <c r="AB4" t="n">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AC4" t="n">
         <v>2</v>
@@ -1828,10 +1828,10 @@
         <v>133</v>
       </c>
       <c r="AF4" t="n">
-        <v>73.07692307692299</v>
+        <v>73.48066298342501</v>
       </c>
       <c r="AG4" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="AH4" t="n">
         <v>35</v>
@@ -1909,7 +1909,7 @@
         <v>33.333333333333</v>
       </c>
       <c r="BG4" t="n">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="BH4" t="n">
         <v>7</v>
@@ -1948,7 +1948,7 @@
         <v>5</v>
       </c>
       <c r="BT4" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="BU4" t="n">
         <v>0</v>
@@ -2065,7 +2065,7 @@
         <v>43</v>
       </c>
       <c r="DG4" t="n">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="DH4" t="n">
         <v>0</v>
@@ -2169,10 +2169,10 @@
         <v>0</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.36990156</v>
+        <v>0.35935256</v>
       </c>
       <c r="AB5" t="n">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="AC5" t="n">
         <v>0</v>
@@ -2181,10 +2181,10 @@
         <v>5</v>
       </c>
       <c r="AE5" t="n">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AF5" t="n">
-        <v>75.308641975309</v>
+        <v>74.07407407407401</v>
       </c>
       <c r="AG5" t="n">
         <v>81</v>
@@ -2193,10 +2193,10 @@
         <v>19</v>
       </c>
       <c r="AI5" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="AJ5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AK5" t="n">
         <v>4</v>
@@ -2265,7 +2265,7 @@
         <v>11.111111111111</v>
       </c>
       <c r="BG5" t="n">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="BH5" t="n">
         <v>4</v>
@@ -2304,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="BT5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BU5" t="n">
         <v>0</v>
@@ -2525,7 +2525,7 @@
         <v>0</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.3903101</v>
+        <v>0.3150909</v>
       </c>
       <c r="AB6" t="n">
         <v>441</v>
@@ -2884,7 +2884,7 @@
         <v>0.66119304</v>
       </c>
       <c r="AB7" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AC7" t="n">
         <v>0</v>
@@ -3237,7 +3237,7 @@
         <v>0</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.95348725</v>
+        <v>1.09980935</v>
       </c>
       <c r="AB8" t="n">
         <v>711</v>
@@ -3249,16 +3249,16 @@
         <v>12</v>
       </c>
       <c r="AE8" t="n">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AF8" t="n">
-        <v>64.920273348519</v>
+        <v>65.148063781321</v>
       </c>
       <c r="AG8" t="n">
         <v>439</v>
       </c>
       <c r="AH8" t="n">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="AI8" t="n">
         <v>135</v>
@@ -3270,7 +3270,7 @@
         <v>17</v>
       </c>
       <c r="AL8" t="n">
-        <v>28.813559322034</v>
+        <v>29.310344827586</v>
       </c>
       <c r="AM8" t="n">
         <v>5</v>
@@ -3288,7 +3288,7 @@
         <v>6</v>
       </c>
       <c r="AR8" t="n">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="AS8" t="n">
         <v>14</v>
@@ -3315,10 +3315,10 @@
         <v>25</v>
       </c>
       <c r="BA8" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="BB8" t="n">
-        <v>51.123595505618</v>
+        <v>50.847457627119</v>
       </c>
       <c r="BC8" t="n">
         <v>65</v>
@@ -3327,13 +3327,13 @@
         <v>53.27868852459</v>
       </c>
       <c r="BE8" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="BF8" t="n">
-        <v>46.428571428571</v>
+        <v>45.454545454545</v>
       </c>
       <c r="BG8" t="n">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="BH8" t="n">
         <v>29</v>
@@ -3372,7 +3372,7 @@
         <v>4</v>
       </c>
       <c r="BT8" t="n">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="BU8" t="n">
         <v>0</v>
@@ -3468,7 +3468,7 @@
         <v>0</v>
       </c>
       <c r="CZ8" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="DA8" t="n">
         <v>31</v>
@@ -4595,7 +4595,7 @@
         <v>48557</v>
       </c>
       <c r="E12" t="n">
-        <v>6.8368421052632</v>
+        <v>6.8421052631579</v>
       </c>
       <c r="F12" t="n">
         <v>19</v>
@@ -4724,7 +4724,7 @@
         <v>2</v>
       </c>
       <c r="AV12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AW12" t="n">
         <v>0</v>
@@ -4787,7 +4787,7 @@
         <v>0</v>
       </c>
       <c r="BQ12" t="n">
-        <v>129.9</v>
+        <v>130</v>
       </c>
       <c r="BR12" t="n">
         <v>19</v>
@@ -4823,7 +4823,7 @@
         <v>3</v>
       </c>
       <c r="CC12" t="n">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="CD12" t="n">
         <v>27</v>
@@ -5020,7 +5020,7 @@
         <v>1.05853563</v>
       </c>
       <c r="AB13" t="n">
-        <v>800</v>
+        <v>801</v>
       </c>
       <c r="AC13" t="n">
         <v>1</v>
@@ -5113,7 +5113,7 @@
         <v>61.111111111111</v>
       </c>
       <c r="BG13" t="n">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="BH13" t="n">
         <v>14</v>
@@ -5376,7 +5376,7 @@
         <v>0.34513584</v>
       </c>
       <c r="AB14" t="n">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="AC14" t="n">
         <v>0</v>
@@ -6375,7 +6375,7 @@
         <v>886737</v>
       </c>
       <c r="E17" t="n">
-        <v>6.66</v>
+        <v>6.655</v>
       </c>
       <c r="F17" t="n">
         <v>20</v>
@@ -6441,7 +6441,7 @@
         <v>1</v>
       </c>
       <c r="AA17" t="n">
-        <v>2.32697056</v>
+        <v>2.32567956</v>
       </c>
       <c r="AB17" t="n">
         <v>756</v>
@@ -6453,10 +6453,10 @@
         <v>16</v>
       </c>
       <c r="AE17" t="n">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AF17" t="n">
-        <v>77.685950413223</v>
+        <v>77.410468319559</v>
       </c>
       <c r="AG17" t="n">
         <v>363</v>
@@ -6465,10 +6465,10 @@
         <v>122</v>
       </c>
       <c r="AI17" t="n">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="AJ17" t="n">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="AK17" t="n">
         <v>17</v>
@@ -6537,7 +6537,7 @@
         <v>37.5</v>
       </c>
       <c r="BG17" t="n">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="BH17" t="n">
         <v>23</v>
@@ -6567,7 +6567,7 @@
         <v>0</v>
       </c>
       <c r="BQ17" t="n">
-        <v>133.2</v>
+        <v>133.1</v>
       </c>
       <c r="BR17" t="n">
         <v>20</v>
@@ -6576,7 +6576,7 @@
         <v>1</v>
       </c>
       <c r="BT17" t="n">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="BU17" t="n">
         <v>1</v>
@@ -6851,7 +6851,7 @@
         <v>60</v>
       </c>
       <c r="AS18" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT18" t="n">
         <v>152</v>
@@ -6878,13 +6878,13 @@
         <v>154</v>
       </c>
       <c r="BB18" t="n">
-        <v>62.857142857143</v>
+        <v>63.114754098361</v>
       </c>
       <c r="BC18" t="n">
         <v>66</v>
       </c>
       <c r="BD18" t="n">
-        <v>60</v>
+        <v>60.550458715596</v>
       </c>
       <c r="BE18" t="n">
         <v>88</v>
@@ -7013,7 +7013,7 @@
         <v>2</v>
       </c>
       <c r="CU18" t="n">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="CV18" t="n">
         <v>47</v>
@@ -7461,7 +7461,7 @@
         <v>4</v>
       </c>
       <c r="K20" t="n">
-        <v>3.0102</v>
+        <v>3.038</v>
       </c>
       <c r="L20" t="n">
         <v>495</v>
@@ -7587,10 +7587,10 @@
         <v>50</v>
       </c>
       <c r="BA20" t="n">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="BB20" t="n">
-        <v>63.478260869565</v>
+        <v>63.636363636364</v>
       </c>
       <c r="BC20" t="n">
         <v>46</v>
@@ -7599,10 +7599,10 @@
         <v>58.227848101266</v>
       </c>
       <c r="BE20" t="n">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="BF20" t="n">
-        <v>66.225165562914</v>
+        <v>66.447368421053</v>
       </c>
       <c r="BG20" t="n">
         <v>208</v>
@@ -7865,7 +7865,7 @@
         <v>1</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.23369781</v>
+        <v>0.23373121</v>
       </c>
       <c r="AB21" t="n">
         <v>233</v>
@@ -7877,16 +7877,16 @@
         <v>1</v>
       </c>
       <c r="AE21" t="n">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AF21" t="n">
-        <v>63.636363636364</v>
+        <v>63.888888888889</v>
       </c>
       <c r="AG21" t="n">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="AH21" t="n">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AI21" t="n">
         <v>43</v>
@@ -7907,7 +7907,7 @@
         <v>27.272727272727</v>
       </c>
       <c r="AO21" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AP21" t="n">
         <v>7</v>
@@ -7919,10 +7919,10 @@
         <v>19</v>
       </c>
       <c r="AS21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AT21" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU21" t="n">
         <v>0</v>
@@ -7943,22 +7943,22 @@
         <v>50</v>
       </c>
       <c r="BA21" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="BB21" t="n">
-        <v>70.58823529411799</v>
+        <v>71.875</v>
       </c>
       <c r="BC21" t="n">
         <v>12</v>
       </c>
       <c r="BD21" t="n">
-        <v>63.157894736842</v>
+        <v>66.666666666667</v>
       </c>
       <c r="BE21" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BF21" t="n">
-        <v>80</v>
+        <v>78.571428571429</v>
       </c>
       <c r="BG21" t="n">
         <v>78</v>
@@ -8081,7 +8081,7 @@
         <v>11</v>
       </c>
       <c r="CU21" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="CV21" t="n">
         <v>3</v>
@@ -8114,7 +8114,7 @@
         <v>0</v>
       </c>
       <c r="DF21" t="n">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="DG21" t="n">
         <v>84</v>
@@ -8222,7 +8222,7 @@
         <v>0.07997988</v>
       </c>
       <c r="AB22" t="n">
-        <v>879</v>
+        <v>880</v>
       </c>
       <c r="AC22" t="n">
         <v>0</v>
@@ -8417,7 +8417,7 @@
         <v>7</v>
       </c>
       <c r="CO22" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="CP22" t="n">
         <v>0</v>
@@ -8488,7 +8488,7 @@
         </is>
       </c>
       <c r="DL22" t="n">
-        <v>-3.7046</v>
+        <v>-3.6812</v>
       </c>
     </row>
   </sheetData>
